--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Sdc2.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H2">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N2">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O2">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P2">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q2">
-        <v>27.08504349172778</v>
+        <v>34.70596279094867</v>
       </c>
       <c r="R2">
-        <v>243.76539142555</v>
+        <v>312.353665118538</v>
       </c>
       <c r="S2">
-        <v>0.0001172903115429974</v>
+        <v>0.0001536888774351628</v>
       </c>
       <c r="T2">
-        <v>0.0001172903115429974</v>
+        <v>0.0001536888774351628</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H3">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>257.478072</v>
       </c>
       <c r="O3">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P3">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q3">
-        <v>3497.701542656059</v>
+        <v>3067.323512267099</v>
       </c>
       <c r="R3">
-        <v>31479.31388390453</v>
+        <v>27605.91161040389</v>
       </c>
       <c r="S3">
-        <v>0.0151466067886451</v>
+        <v>0.01358306957713203</v>
       </c>
       <c r="T3">
-        <v>0.0151466067886451</v>
+        <v>0.01358306957713203</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H4">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N4">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O4">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P4">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q4">
-        <v>1385.498288762352</v>
+        <v>1295.503542718371</v>
       </c>
       <c r="R4">
-        <v>12469.48459886117</v>
+        <v>11659.53188446534</v>
       </c>
       <c r="S4">
-        <v>0.005999825179562954</v>
+        <v>0.005736895598977288</v>
       </c>
       <c r="T4">
-        <v>0.005999825179562953</v>
+        <v>0.005736895598977286</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H5">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I5">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J5">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N5">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O5">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P5">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q5">
-        <v>0.3796450091975556</v>
+        <v>5.338383701362666</v>
       </c>
       <c r="R5">
-        <v>3.416805082778001</v>
+        <v>48.04545331226399</v>
       </c>
       <c r="S5">
-        <v>1.644032117508884E-06</v>
+        <v>2.364003567117784E-05</v>
       </c>
       <c r="T5">
-        <v>1.644032117508883E-06</v>
+        <v>2.364003567117784E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,43 +788,43 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H6">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I6">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J6">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N6">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O6">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P6">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q6">
-        <v>1122.715750621556</v>
+        <v>1640.467156414693</v>
       </c>
       <c r="R6">
-        <v>10104.441755594</v>
+        <v>14764.20440773224</v>
       </c>
       <c r="S6">
-        <v>0.004861859653459699</v>
+        <v>0.007264502565662325</v>
       </c>
       <c r="T6">
-        <v>0.004861859653459697</v>
+        <v>0.007264502565662325</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H7">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I7">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J7">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>257.478072</v>
       </c>
       <c r="O7">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P7">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q7">
         <v>144984.9845769167</v>
@@ -883,10 +883,10 @@
         <v>1304864.86119225</v>
       </c>
       <c r="S7">
-        <v>0.627849610626505</v>
+        <v>0.6420389389223924</v>
       </c>
       <c r="T7">
-        <v>0.6278496106265048</v>
+        <v>0.6420389389223923</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H8">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I8">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J8">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N8">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O8">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P8">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q8">
-        <v>57430.9859139708</v>
+        <v>61235.32793628847</v>
       </c>
       <c r="R8">
-        <v>516878.8732257372</v>
+        <v>551117.9514265963</v>
       </c>
       <c r="S8">
-        <v>0.2487017690087317</v>
+        <v>0.2711692185746445</v>
       </c>
       <c r="T8">
-        <v>0.2487017690087316</v>
+        <v>0.2711692185746444</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,43 +974,43 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H9">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I9">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J9">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N9">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O9">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P9">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q9">
-        <v>15.73685608447112</v>
+        <v>252.3325223154133</v>
       </c>
       <c r="R9">
-        <v>141.63170476024</v>
+        <v>2270.992700838719</v>
       </c>
       <c r="S9">
-        <v>6.814760158752059E-05</v>
+        <v>0.001117407470544314</v>
       </c>
       <c r="T9">
-        <v>6.814760158752056E-05</v>
+        <v>0.001117407470544314</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H10">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I10">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J10">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N10">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O10">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P10">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q10">
-        <v>56.76602365062779</v>
+        <v>90.93521847674701</v>
       </c>
       <c r="R10">
-        <v>510.89421285565</v>
+        <v>818.4169662907231</v>
       </c>
       <c r="S10">
-        <v>0.000245822185999915</v>
+        <v>0.0004026896395641096</v>
       </c>
       <c r="T10">
-        <v>0.0002458221859999149</v>
+        <v>0.0004026896395641096</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H11">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I11">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J11">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>257.478072</v>
       </c>
       <c r="O11">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P11">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q11">
-        <v>7330.636502536604</v>
+        <v>8036.882175175272</v>
       </c>
       <c r="R11">
-        <v>65975.72852282942</v>
+        <v>72331.93957657745</v>
       </c>
       <c r="S11">
-        <v>0.03174492370498089</v>
+        <v>0.0355898324164484</v>
       </c>
       <c r="T11">
-        <v>0.03174492370498087</v>
+        <v>0.03558983241644839</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H12">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I12">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J12">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N12">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O12">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P12">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q12">
-        <v>2903.788160864824</v>
+        <v>3394.428167980947</v>
       </c>
       <c r="R12">
-        <v>26134.09344778342</v>
+        <v>30549.85351182853</v>
       </c>
       <c r="S12">
-        <v>0.01257469710715892</v>
+        <v>0.01503159148223786</v>
       </c>
       <c r="T12">
-        <v>0.01257469710715891</v>
+        <v>0.01503159148223785</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H13">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I13">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J13">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N13">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O13">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P13">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q13">
-        <v>0.7956766832415558</v>
+        <v>13.987426054716</v>
       </c>
       <c r="R13">
-        <v>7.161090149174001</v>
+        <v>125.886834492444</v>
       </c>
       <c r="S13">
-        <v>3.445634713246964E-06</v>
+        <v>6.194070516082313E-05</v>
       </c>
       <c r="T13">
-        <v>3.445634713246962E-06</v>
+        <v>6.194070516082313E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H14">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I14">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J14">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N14">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O14">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P14">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q14">
-        <v>67.1024477690861</v>
+        <v>13.93163258944633</v>
       </c>
       <c r="R14">
-        <v>603.9220299217749</v>
+        <v>125.384693305017</v>
       </c>
       <c r="S14">
-        <v>0.0002905835099189555</v>
+        <v>6.169363421520023E-05</v>
       </c>
       <c r="T14">
-        <v>0.0002905835099189555</v>
+        <v>6.169363421520023E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H15">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I15">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J15">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>257.478072</v>
       </c>
       <c r="O15">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P15">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q15">
-        <v>8665.459043830322</v>
+        <v>1231.281911505421</v>
       </c>
       <c r="R15">
-        <v>77989.13139447289</v>
+        <v>11081.53720354879</v>
       </c>
       <c r="S15">
-        <v>0.03752530030916733</v>
+        <v>0.005452502093814324</v>
       </c>
       <c r="T15">
-        <v>0.03752530030916732</v>
+        <v>0.005452502093814323</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H16">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I16">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J16">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N16">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O16">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P16">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q16">
-        <v>3432.5337740081</v>
+        <v>520.0397258590242</v>
       </c>
       <c r="R16">
-        <v>30892.8039660729</v>
+        <v>4680.357532731217</v>
       </c>
       <c r="S16">
-        <v>0.01486440130170854</v>
+        <v>0.002302898846817398</v>
       </c>
       <c r="T16">
-        <v>0.01486440130170854</v>
+        <v>0.002302898846817398</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H17">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I17">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J17">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N17">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O17">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P17">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q17">
-        <v>0.9405600330032222</v>
+        <v>2.142928602697333</v>
       </c>
       <c r="R17">
-        <v>8.465040297028999</v>
+        <v>19.286357424276</v>
       </c>
       <c r="S17">
-        <v>4.073044199819469E-06</v>
+        <v>9.489559282825839E-06</v>
       </c>
       <c r="T17">
-        <v>4.073044199819469E-06</v>
+        <v>9.489559282825839E-06</v>
       </c>
     </row>
   </sheetData>
